--- a/biology/Médecine/Elke_Sleurs/Elke_Sleurs.xlsx
+++ b/biology/Médecine/Elke_Sleurs/Elke_Sleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Elke Sleurs, née le 6 février 1968 à Gand, est une femme politique belge membre du parti nationaliste flamand N-VA qui fut secrétaire d'État au sein du gouvernement Michel de 2014 à 2017.
@@ -513,7 +525,9 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Conseillère CPAS à Gand (2007-2008)
 Conseillère communale à Gand (2012-)
@@ -521,7 +535,7 @@
 Députée flamande depuis le 25 mai 2014.
 Sénatrice de communauté (2014-)
 Secrétaire d'État à la Lutte contre la pauvreté, à la Lutte contre la fraude et à la Politique scientifique du 11 octobre 2014 au 21 mai 2015 (gouvernement Michel).
-Secrétaire d'État à la Lutte contre la pauvreté, à l'Égalité des chances, aux Personnes handicapées, et à la Politique scientifique, chargée des Grandes villes, du 21 mai 2015 au 20 février 2017 (gouvernement Michel)[1],[2].</t>
+Secrétaire d'État à la Lutte contre la pauvreté, à l'Égalité des chances, aux Personnes handicapées, et à la Politique scientifique, chargée des Grandes villes, du 21 mai 2015 au 20 février 2017 (gouvernement Michel),.</t>
         </is>
       </c>
     </row>
